--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail13 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>2.596215893006877e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.350973029139219</v>
+        <v>1.209082805420673e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.545306564484386</v>
+        <v>4.260197583065189e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.209082805420673e-06</v>
+        <v>-0.05256319341293415</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.260197583065189e-06</v>
+        <v>0.1418436096535768</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05256319341293415</v>
+        <v>0.02284871535126755</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1418436096535768</v>
+        <v>1.725777130641406</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02284871535126755</v>
+        <v>1.404189429788933</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.704931229117183</v>
+        <v>11.84084099492467</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.404189429788933</v>
+        <v>9.766457322357529e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>11.84084099492467</v>
+        <v>241347018.6536355</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.766457322357529e-15</v>
+        <v>4.392148493168852e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>241347018.6536355</v>
+        <v>568.880350699366</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.392148493168852e-07</v>
+        <v>0.0002400370323037441</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>568.880350699366</v>
+        <v>12.00519089719756</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002400370323037441</v>
+        <v>1.305342252649166</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.00519089719756</v>
+        <v>0.0345952433010354</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.305342252649166</v>
+        <v>2.794952205697473</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0345952433010354</v>
+        <v>0.9564178574409276</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.794952205697473</v>
+        <v>1.157591005154667</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9564178574409276</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.157591005154667</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.407784808290808</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>2.356043875921799e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.179700140444242</v>
+        <v>1.04756548403801e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.081334102954587</v>
+        <v>4.248179804561244e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.04756548403801e-06</v>
+        <v>-0.04471195715576329</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.248179804561244e-06</v>
+        <v>0.134344108089784</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04471195715576329</v>
+        <v>0.02002590237359853</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.134344108089784</v>
+        <v>1.850241384534626</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02002590237359853</v>
+        <v>1.485026630689603</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.833403692857724</v>
+        <v>4.275961552353524</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.485026630689603</v>
+        <v>5.905382276871572e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.275961552353524</v>
+        <v>39819663.21369782</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.905382276871572e-15</v>
+        <v>2.95549517513548e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>39819663.21369782</v>
+        <v>9.363607081101026</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.95549517513548e-06</v>
+        <v>0.0002559070375530797</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.363607081101026</v>
+        <v>14.54019267811982</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002559070375530797</v>
+        <v>0.9927229936128545</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>14.54019267811982</v>
+        <v>0.05410315013739063</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9927229936128545</v>
+        <v>2.191299843307246</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.05410315013739063</v>
+        <v>0.9563364187363322</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.191299843307246</v>
+        <v>1.487467054716355</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9563364187363322</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.487467054716355</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3184778512567991</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>2.169780040411278e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.020628947046098</v>
+        <v>9.39998171368825e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7375410019324802</v>
+        <v>4.23881604595173e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.39998171368825e-07</v>
+        <v>-0.03862234549612122</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.23881604595173e-06</v>
+        <v>0.1346507879475856</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03862234549612122</v>
+        <v>0.01961270014619892</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1346507879475856</v>
+        <v>1.631575560424186</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01961270014619892</v>
+        <v>1.187271184197814</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.673951771450584</v>
+        <v>32.58433528786097</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.187271184197814</v>
+        <v>1.653352741292415e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>32.58433528786097</v>
+        <v>517124591.125896</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.653352741292415e-14</v>
+        <v>2.05921548213259e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>517124591.125896</v>
+        <v>4421.360233764634</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.05921548213259e-07</v>
+        <v>0.0002402191047637923</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4421.360233764634</v>
+        <v>12.15231463917584</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002402191047637923</v>
+        <v>1.266524116158609</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.15231463917584</v>
+        <v>0.03547525737936118</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.266524116158609</v>
+        <v>2.862091720985394</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03547525737936118</v>
+        <v>0.9485836859249681</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.862091720985394</v>
+        <v>0.7526431854767029</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9485836859249681</v>
+        <v>32</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7526431854767029</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.714433705321627</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>2.014884791526468e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.8451347118331667</v>
+        <v>8.700242622029646e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.3597955285701264</v>
+        <v>4.231152777668714e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.700242622029646e-07</v>
+        <v>-0.03494913343649415</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.231152777668714e-06</v>
+        <v>0.139835655076607</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03494913343649415</v>
+        <v>0.02076902111606388</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.139835655076607</v>
+        <v>1.629265889245961</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02076902111606388</v>
+        <v>1.186797660224658</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.666505896618659</v>
+        <v>32.88967494783097</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.186797660224658</v>
+        <v>1.622796599495714e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>32.88967494783097</v>
+        <v>526883811.2445602</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.622796599495714e-14</v>
+        <v>2.021074921662559e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>526883811.2445602</v>
+        <v>4504.989662328609</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.021074921662559e-07</v>
+        <v>5.35692106700756e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4504.989662328609</v>
+        <v>10.96615502208914</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.35692106700756e-05</v>
+        <v>1.451085604458691</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.96615502208914</v>
+        <v>0.006442048781133826</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.451085604458691</v>
+        <v>7.183163122149488</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006442048781133826</v>
+        <v>0.9503807340774725</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.183163122149488</v>
+        <v>0.8482585834869629</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9503807340774725</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8482585834869629</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.910438915874071</v>
       </c>
     </row>
@@ -5030,7 +4994,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.242123544738721</v>
+        <v>1.219291516680965</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2770006613458</v>
@@ -5119,7 +5083,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.251691952877376</v>
+        <v>1.228048728518292</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.154823118648443</v>
@@ -5208,7 +5172,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.268458262938319</v>
+        <v>1.240569406286086</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.101742491534911</v>
@@ -5297,7 +5261,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.276470839691584</v>
+        <v>1.246768170428708</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.180111813959252</v>
@@ -5386,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.302871965484369</v>
+        <v>1.278178518260205</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.337856857175507</v>
@@ -5475,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.319566008768511</v>
+        <v>1.294928879913053</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.050530767685898</v>
@@ -5564,7 +5528,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.356113663424463</v>
+        <v>1.328523224587506</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.05313795624891</v>
@@ -5653,7 +5617,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.36330547709093</v>
+        <v>1.342769638640032</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.258777646016279</v>
@@ -5742,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.360050299517565</v>
+        <v>1.342331715197513</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.362266940105111</v>
@@ -5831,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.35931737900345</v>
+        <v>1.333757408183792</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.256090534491724</v>
@@ -5920,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.353287274463604</v>
+        <v>1.335034121145032</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.16493462964482</v>
@@ -6009,7 +5973,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.329393506050023</v>
+        <v>1.311144217764585</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.313607215932051</v>
@@ -6098,7 +6062,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.330530108167133</v>
+        <v>1.315534856923418</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.326156657681315</v>
@@ -6187,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.319535407751596</v>
+        <v>1.304521002224775</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.137586823315986</v>
@@ -6276,7 +6240,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.331416069124429</v>
+        <v>1.313360152088571</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.22719041439692</v>
@@ -6365,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.323002993586031</v>
+        <v>1.311479247567086</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.295837714946365</v>
@@ -6454,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.326921150587615</v>
+        <v>1.315902012381136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.244097625206163</v>
@@ -6543,7 +6507,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.340352701440004</v>
+        <v>1.332083891310294</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.311534766732157</v>
@@ -6632,7 +6596,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.346071985062057</v>
+        <v>1.335773065220718</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.182205289184723</v>
@@ -6721,7 +6685,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.333887366062115</v>
+        <v>1.320483166250234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.292752389046262</v>
@@ -6810,7 +6774,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.345371031427006</v>
+        <v>1.335709122409133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.172775936563202</v>
@@ -6899,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.328433948958433</v>
+        <v>1.316381797464442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.270638187006774</v>
@@ -6988,7 +6952,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.327893132499635</v>
+        <v>1.309739890119217</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.340112684423684</v>
@@ -7077,7 +7041,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.306362673241187</v>
+        <v>1.288282187901842</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.325221126512625</v>
@@ -7166,7 +7130,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.302452736639714</v>
+        <v>1.291973034121269</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.285033874234675</v>
@@ -7255,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.303537462959542</v>
+        <v>1.292147371391709</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.163695344004159</v>
@@ -7344,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.301153560477088</v>
+        <v>1.293537584929036</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.200615761537599</v>
@@ -7433,7 +7397,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.297162696673761</v>
+        <v>1.289161306315456</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.218913962927442</v>
@@ -7522,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.309950058187954</v>
+        <v>1.303295832965489</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.220754235025901</v>
@@ -7611,7 +7575,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.30880876961005</v>
+        <v>1.300928486871724</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.20500579492964</v>
@@ -7700,7 +7664,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.305828552142737</v>
+        <v>1.298839867905995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.152365107189826</v>
@@ -7789,7 +7753,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.315434810775732</v>
+        <v>1.309972908304206</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.25886391310822</v>
@@ -7878,7 +7842,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.310629010189662</v>
+        <v>1.299710296707566</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.297971988387435</v>
@@ -7967,7 +7931,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.312562799934787</v>
+        <v>1.308530269201436</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.195619289631386</v>
@@ -8056,7 +8020,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.322216063185561</v>
+        <v>1.318694906999985</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.121354199712877</v>
@@ -8145,7 +8109,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.331617165420383</v>
+        <v>1.323839917678635</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.264933413805253</v>
@@ -8234,7 +8198,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.35015158594139</v>
+        <v>1.34437030781694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.272619975594656</v>
@@ -8323,7 +8287,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.368797972860724</v>
+        <v>1.366981733316421</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.411367201285324</v>
@@ -8412,7 +8376,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403742002431667</v>
+        <v>1.399250276129728</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.125617817395247</v>
@@ -8501,7 +8465,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429578534708358</v>
+        <v>1.421420760198394</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.304291779283921</v>
@@ -8590,7 +8554,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.461458941402247</v>
+        <v>1.451552727474984</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.251326449889956</v>
@@ -8679,7 +8643,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.500466071448799</v>
+        <v>1.478026156683522</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.124111283892685</v>
@@ -8768,7 +8732,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.497202876100187</v>
+        <v>1.485706356578875</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.205096087963955</v>
@@ -8857,7 +8821,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502870457485714</v>
+        <v>1.490368634708426</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.064903981420259</v>
@@ -8946,7 +8910,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.52656998608118</v>
+        <v>1.512548780290353</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.12005224065301</v>
@@ -9035,7 +8999,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562183645647719</v>
+        <v>1.543967760772451</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.140192492446245</v>
@@ -9124,7 +9088,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560129516097588</v>
+        <v>1.542860166601562</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.201942205869962</v>
@@ -9213,7 +9177,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623865176061946</v>
+        <v>1.604189409241571</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.361725127415407</v>
@@ -9302,7 +9266,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624420149634496</v>
+        <v>1.606817090973243</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.084899570942838</v>
@@ -9588,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550776984310231</v>
+        <v>1.558887731320692</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.088672342815632</v>
@@ -9677,7 +9641,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56192630090491</v>
+        <v>1.568753726533648</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.912243423545437</v>
@@ -9766,7 +9730,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.550543203963739</v>
+        <v>1.559131978441195</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.896166561286403</v>
@@ -9855,7 +9819,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518020636562772</v>
+        <v>1.516892888324003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.684726494060957</v>
@@ -9944,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529533447274535</v>
+        <v>1.531067100563382</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.684157809150881</v>
@@ -10033,7 +9997,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.529179746632409</v>
+        <v>1.530497850411098</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.605815612977743</v>
@@ -10122,7 +10086,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.540088619721946</v>
+        <v>1.540823211690852</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.937802114565502</v>
@@ -10211,7 +10175,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.549398133961613</v>
+        <v>1.551860729784453</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.75294386005184</v>
@@ -10300,7 +10264,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.568384155618189</v>
+        <v>1.572326471929514</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.757019434806291</v>
@@ -10389,7 +10353,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.577396063457072</v>
+        <v>1.57839323931258</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.680916916109921</v>
@@ -10478,7 +10442,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59729800361662</v>
+        <v>1.598985555597985</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.786797942876311</v>
@@ -10567,7 +10531,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588362265226815</v>
+        <v>1.591922199529168</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.863521259584911</v>
@@ -10656,7 +10620,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.584771862399208</v>
+        <v>1.58888878959932</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.038526351526457</v>
@@ -10745,7 +10709,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.565795776105604</v>
+        <v>1.575640121299882</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.642385232718874</v>
@@ -10834,7 +10798,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.57069031581316</v>
+        <v>1.576745389091781</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.788754129728838</v>
@@ -10923,7 +10887,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565974167404169</v>
+        <v>1.578602686263096</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.870480683261237</v>
@@ -11012,7 +10976,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577295488610505</v>
+        <v>1.591966478461656</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.876917283236437</v>
@@ -11101,7 +11065,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.591318134573907</v>
+        <v>1.604507700827352</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.842436322456739</v>
@@ -11190,7 +11154,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.612747182489638</v>
+        <v>1.625207282569104</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.233523166297487</v>
@@ -11279,7 +11243,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.612640709229594</v>
+        <v>1.626277374962979</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.978446119693301</v>
@@ -11368,7 +11332,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618189192954397</v>
+        <v>1.633654736789579</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.324291769540993</v>
@@ -11457,7 +11421,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60313700614057</v>
+        <v>1.619241588771602</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.905197983976611</v>
@@ -11546,7 +11510,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.59302026551982</v>
+        <v>1.604549096874611</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.882174385202132</v>
@@ -11635,7 +11599,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581557438167776</v>
+        <v>1.594944435000331</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.860185982371337</v>
@@ -11724,7 +11688,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.588171281366948</v>
+        <v>1.602100642015166</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.747318271207873</v>
@@ -11813,7 +11777,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579157684832328</v>
+        <v>1.591972325623703</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.53991015061263</v>
@@ -11902,7 +11866,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58168618353922</v>
+        <v>1.593909115783418</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.965081895228045</v>
@@ -11991,7 +11955,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585927709813896</v>
+        <v>1.597199238358315</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.539770054084675</v>
@@ -12080,7 +12044,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.608137741110168</v>
+        <v>1.613298197947019</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.750552205321986</v>
@@ -12169,7 +12133,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5985741279821</v>
+        <v>1.605643461172721</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.64077204125474</v>
@@ -12258,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.61191740653207</v>
+        <v>1.618763238132382</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.695744379827012</v>
@@ -12347,7 +12311,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61381719634009</v>
+        <v>1.616267448192826</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.773471147922481</v>
@@ -12436,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610194664081541</v>
+        <v>1.614388245513269</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.990674078488885</v>
@@ -12525,7 +12489,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603834895046899</v>
+        <v>1.61160911743238</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.671775831342084</v>
@@ -12614,7 +12578,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61166373591649</v>
+        <v>1.619087465249886</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.693340033624481</v>
@@ -12703,7 +12667,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.618697731968262</v>
+        <v>1.623541446099535</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.811692918443635</v>
@@ -12792,7 +12756,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618912636149792</v>
+        <v>1.626928410444991</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.274046589730238</v>
@@ -12881,7 +12845,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639563160062567</v>
+        <v>1.65068346630816</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.15924981478302</v>
@@ -12970,7 +12934,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65869287694907</v>
+        <v>1.670644909146812</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.471344038811984</v>
@@ -13059,7 +13023,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.666159592730643</v>
+        <v>1.682328950210604</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.318268494345147</v>
@@ -13148,7 +13112,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.684891322214933</v>
+        <v>1.701228517225841</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.631860475696218</v>
@@ -13237,7 +13201,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.700261575139583</v>
+        <v>1.718676207303212</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.338161090947263</v>
@@ -13326,7 +13290,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.699052301280535</v>
+        <v>1.718406622146354</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.18203169597662</v>
@@ -13415,7 +13379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712490829615008</v>
+        <v>1.733737629263543</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.408162864830462</v>
@@ -13504,7 +13468,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.721433031934296</v>
+        <v>1.74141885898122</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.35664815271003</v>
@@ -13593,7 +13557,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724556209965117</v>
+        <v>1.747094200989393</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.521159802091295</v>
@@ -13682,7 +13646,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720479700691337</v>
+        <v>1.748010493165304</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.397985745881344</v>
@@ -13771,7 +13735,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.731783434203853</v>
+        <v>1.758098621597328</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.300448428739023</v>
@@ -13860,7 +13824,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.739681738284907</v>
+        <v>1.763281299473207</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.566928293265746</v>
@@ -14146,7 +14110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.594179855884487</v>
+        <v>1.563508302404033</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.497215060777382</v>
@@ -14235,7 +14199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.587435335224561</v>
+        <v>1.556677744756176</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.226400778734479</v>
@@ -14324,7 +14288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582686469344182</v>
+        <v>1.545880399645646</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.875687334953163</v>
@@ -14413,7 +14377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.57903270274389</v>
+        <v>1.536647188879998</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.059956692228376</v>
@@ -14502,7 +14466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.591255051300291</v>
+        <v>1.55310243026942</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.055917311448757</v>
@@ -14591,7 +14555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588321717446886</v>
+        <v>1.551758575244041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.823318887880222</v>
@@ -14680,7 +14644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.589446044127472</v>
+        <v>1.552238982706852</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.46136809768428</v>
@@ -14769,7 +14733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59424003199663</v>
+        <v>1.562399176358514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.328810921535268</v>
@@ -14858,7 +14822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.598174707211725</v>
+        <v>1.563802270010341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.238611311743484</v>
@@ -14947,7 +14911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.603977787955152</v>
+        <v>1.56684426874036</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.286667031844893</v>
@@ -15036,7 +15000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610126943048511</v>
+        <v>1.568877155448307</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.688455163005424</v>
@@ -15125,7 +15089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615869767374953</v>
+        <v>1.5680196230305</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.987441140512126</v>
@@ -15214,7 +15178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.601900921254355</v>
+        <v>1.554268436566954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.098499232764319</v>
@@ -15303,7 +15267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588731647475327</v>
+        <v>1.545138616198432</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.085135325310706</v>
@@ -15392,7 +15356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587655356916525</v>
+        <v>1.548970396697216</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.129741444365817</v>
@@ -15481,7 +15445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.604351875519502</v>
+        <v>1.566434845504295</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.758366699118429</v>
@@ -15570,7 +15534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.616945808451223</v>
+        <v>1.575704001446932</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.892550512238648</v>
@@ -15659,7 +15623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634394760631272</v>
+        <v>1.589731583573055</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.339477361680394</v>
@@ -15748,7 +15712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64665553038623</v>
+        <v>1.597363539719874</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.602282070483406</v>
@@ -15837,7 +15801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639204607581151</v>
+        <v>1.585938217760769</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.430426974677743</v>
@@ -15926,7 +15890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.64868171625064</v>
+        <v>1.595186397829313</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.175174799766022</v>
@@ -16015,7 +15979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.642341067832811</v>
+        <v>1.583343405181619</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.630553076276694</v>
@@ -16104,7 +16068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63727614439674</v>
+        <v>1.576106849479046</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.474971709124041</v>
@@ -16193,7 +16157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.630175325647114</v>
+        <v>1.568273606954953</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.094953814333652</v>
@@ -16282,7 +16246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627139437532678</v>
+        <v>1.568651556092783</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.558072902976523</v>
@@ -16371,7 +16335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627898863425602</v>
+        <v>1.572332193196337</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.563471322234889</v>
@@ -16460,7 +16424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631575751415204</v>
+        <v>1.579967216863374</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.148811086724006</v>
@@ -16549,7 +16513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.636303721785128</v>
+        <v>1.585015699924293</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.915420055493133</v>
@@ -16638,7 +16602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646946207427112</v>
+        <v>1.587766466448956</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.263866446032955</v>
@@ -16727,7 +16691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649620267835022</v>
+        <v>1.585985182811511</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.495633966717669</v>
@@ -16816,7 +16780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.632010265574686</v>
+        <v>1.570304770142694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.232135987009457</v>
@@ -16905,7 +16869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614369743720061</v>
+        <v>1.557401327226005</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.39097606810456</v>
@@ -16994,7 +16958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602436392997573</v>
+        <v>1.551966378644692</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.399798450090672</v>
@@ -17083,7 +17047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600604462685091</v>
+        <v>1.554018655332506</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.128663267154359</v>
@@ -17172,7 +17136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600516081108757</v>
+        <v>1.557036822718799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.343642686456808</v>
@@ -17261,7 +17225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.596182024121218</v>
+        <v>1.55257963983048</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.29546259753262</v>
@@ -17350,7 +17314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610598158763532</v>
+        <v>1.570574607388365</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.307124801198625</v>
@@ -17439,7 +17403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616575872010226</v>
+        <v>1.574970703383898</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.72164899065676</v>
@@ -17528,7 +17492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614301664164325</v>
+        <v>1.573915220502589</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.169066087940818</v>
@@ -17617,7 +17581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624900201495167</v>
+        <v>1.581294383932017</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.795893966034765</v>
@@ -17706,7 +17670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62882166140988</v>
+        <v>1.584636952340281</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.038784397647607</v>
@@ -17795,7 +17759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630190633990177</v>
+        <v>1.579948181322408</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.091146738782836</v>
@@ -17884,7 +17848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62396326162509</v>
+        <v>1.575305740487419</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.46708274451401</v>
@@ -17973,7 +17937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.623268037449761</v>
+        <v>1.570653720491167</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.059510326761905</v>
@@ -18062,7 +18026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623982726009786</v>
+        <v>1.57128143815778</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.87472401481833</v>
@@ -18151,7 +18115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625779916093275</v>
+        <v>1.578149018775675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.373078379676052</v>
@@ -18240,7 +18204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6293265645595</v>
+        <v>1.584479140594716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.308248480111073</v>
@@ -18329,7 +18293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628717493614565</v>
+        <v>1.580450080863153</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.501544500519949</v>
@@ -18418,7 +18382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.626860666431945</v>
+        <v>1.582721360147275</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.529488085032375</v>
@@ -18704,7 +18668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.597560783575067</v>
+        <v>1.566994657610252</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.255359118824444</v>
@@ -18793,7 +18757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.600229494918598</v>
+        <v>1.566455407130716</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.06481344887848</v>
@@ -18882,7 +18846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.62323672151752</v>
+        <v>1.584541407123647</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.899089172946241</v>
@@ -18971,7 +18935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617845366471702</v>
+        <v>1.583576720523209</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.207977800692407</v>
@@ -19060,7 +19024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619236763592121</v>
+        <v>1.583188809859801</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.094680713472655</v>
@@ -19149,7 +19113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616429039170284</v>
+        <v>1.582719739160626</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.346929862148452</v>
@@ -19238,7 +19202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61324767503951</v>
+        <v>1.582384932619533</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.186036942784814</v>
@@ -19327,7 +19291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605840924005014</v>
+        <v>1.577400056214095</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.263084660050252</v>
@@ -19416,7 +19380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61483393221107</v>
+        <v>1.588599618327594</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.845719343845234</v>
@@ -19505,7 +19469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.62776602478958</v>
+        <v>1.597258109178267</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.821513421326313</v>
@@ -19594,7 +19558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.632359294817286</v>
+        <v>1.60596902912108</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.106426125700095</v>
@@ -19683,7 +19647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.641170484735582</v>
+        <v>1.615208818261809</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.597686207472482</v>
@@ -19772,7 +19736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65179894541253</v>
+        <v>1.632947417981704</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.293492705146401</v>
@@ -19861,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.651154398477936</v>
+        <v>1.631927022794049</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.399151141623225</v>
@@ -19950,7 +19914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.662841058683044</v>
+        <v>1.640387640506535</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.312323110110357</v>
@@ -20039,7 +20003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.659044777233654</v>
+        <v>1.64053721711718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.053502926860122</v>
@@ -20128,7 +20092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662670689856919</v>
+        <v>1.644609171242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.81304680436896</v>
@@ -20217,7 +20181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.658662845814417</v>
+        <v>1.640068116255172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.561726293645097</v>
@@ -20306,7 +20270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.658968224108965</v>
+        <v>1.643535109100023</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.6004376017402</v>
@@ -20395,7 +20359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666629416871479</v>
+        <v>1.655093399267778</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.811145600285911</v>
@@ -20484,7 +20448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.675779451669567</v>
+        <v>1.658761311397379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.183259565342291</v>
@@ -20573,7 +20537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.678487079195712</v>
+        <v>1.656495922563018</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.571426267490166</v>
@@ -20662,7 +20626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684364658986062</v>
+        <v>1.660134278485992</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.649329119118254</v>
@@ -20751,7 +20715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696395464815075</v>
+        <v>1.668129953052246</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.902753244428384</v>
@@ -20840,7 +20804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.694150471912627</v>
+        <v>1.664968808422073</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.640947395656429</v>
@@ -20929,7 +20893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.6861097978079</v>
+        <v>1.658562190862213</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.647780083984549</v>
@@ -21018,7 +20982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.696977515016943</v>
+        <v>1.660037869939932</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.336527291046715</v>
@@ -21107,7 +21071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681788381632553</v>
+        <v>1.638136888940523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.272629013310328</v>
@@ -21196,7 +21160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682410425406077</v>
+        <v>1.638307085672545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.733917596013224</v>
@@ -21285,7 +21249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.685515015182315</v>
+        <v>1.640050083021532</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.622436775530579</v>
@@ -21374,7 +21338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.684917932898273</v>
+        <v>1.63998389048994</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.625957291614089</v>
@@ -21463,7 +21427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681133943448535</v>
+        <v>1.639327127596299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.521023519686224</v>
@@ -21552,7 +21516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.677363607970722</v>
+        <v>1.635144170595232</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.863726548727757</v>
@@ -21641,7 +21605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.673547554749127</v>
+        <v>1.632793095924573</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.702339035883086</v>
@@ -21730,7 +21694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.662522942582476</v>
+        <v>1.621348863780019</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.501915240060484</v>
@@ -21819,7 +21783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658329570421651</v>
+        <v>1.621247104614697</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.521014118891024</v>
@@ -21908,7 +21872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657077521027236</v>
+        <v>1.624321000454435</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.892397583455924</v>
@@ -21997,7 +21961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662307918057526</v>
+        <v>1.631184713844956</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.622850799099963</v>
@@ -22086,7 +22050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651016818282655</v>
+        <v>1.616623855790155</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.713173315374617</v>
@@ -22175,7 +22139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.653720522565588</v>
+        <v>1.616378787340704</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.828549027616035</v>
@@ -22264,7 +22228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.654829821201048</v>
+        <v>1.608800111024815</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.258107046200221</v>
@@ -22353,7 +22317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662406893070153</v>
+        <v>1.619610708460958</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.682126900479981</v>
@@ -22442,7 +22406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.671842627976873</v>
+        <v>1.631816654746305</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.470519316628428</v>
@@ -22531,7 +22495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.679373856746529</v>
+        <v>1.640364228760078</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.673007852051474</v>
@@ -22620,7 +22584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676962205060954</v>
+        <v>1.63643718921432</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.769718217460334</v>
@@ -22709,7 +22673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676961046932152</v>
+        <v>1.638293243460432</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.632855862525165</v>
@@ -22798,7 +22762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668740062239303</v>
+        <v>1.633862072297876</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.428705820857736</v>
@@ -22887,7 +22851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.669415413602688</v>
+        <v>1.63846479025742</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.394871562126819</v>
@@ -22976,7 +22940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.674655008768421</v>
+        <v>1.638300818992119</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.486976494782513</v>
@@ -23262,7 +23226,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615231513802743</v>
+        <v>1.644213241505813</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.689555856979562</v>
@@ -23351,7 +23315,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.626113016587342</v>
+        <v>1.655575061843756</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.842908746345502</v>
@@ -23440,7 +23404,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.662535447355729</v>
+        <v>1.683146717325977</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.490238746370382</v>
@@ -23529,7 +23493,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633896590611528</v>
+        <v>1.640981617202177</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.212106660688163</v>
@@ -23618,7 +23582,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.646416241364506</v>
+        <v>1.656350949357574</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.214800859850826</v>
@@ -23707,7 +23671,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648041752662916</v>
+        <v>1.663945413490672</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.164500571726275</v>
@@ -23796,7 +23760,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.665713721750284</v>
+        <v>1.684261479447256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.443513731386524</v>
@@ -23885,7 +23849,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.683086744558197</v>
+        <v>1.702620224678168</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.468728171455112</v>
@@ -23974,7 +23938,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.711268322531375</v>
+        <v>1.728816508039785</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.390183272367036</v>
@@ -24063,7 +24027,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.729666429958025</v>
+        <v>1.749691329595306</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.653552255343526</v>
@@ -24152,7 +24116,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.75281059001271</v>
+        <v>1.769559657042133</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.748005170884575</v>
@@ -24241,7 +24205,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.774568954784998</v>
+        <v>1.795092653991054</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.830287718768608</v>
@@ -24330,7 +24294,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.788827946061189</v>
+        <v>1.811676333795676</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.745353877160691</v>
@@ -24419,7 +24383,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.796282141253545</v>
+        <v>1.819426499589093</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.869421598459291</v>
@@ -24508,7 +24472,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.807531731565414</v>
+        <v>1.832906570284463</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.050056784954421</v>
@@ -24597,7 +24561,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.819611823210689</v>
+        <v>1.841642198637907</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.101088538284476</v>
@@ -24686,7 +24650,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.820750265422059</v>
+        <v>1.846164488688031</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.081935267078436</v>
@@ -24775,7 +24739,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.828667864325967</v>
+        <v>1.854546163140181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.955124142821142</v>
@@ -24864,7 +24828,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.859052921437501</v>
+        <v>1.885106355560591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.451778341808284</v>
@@ -24953,7 +24917,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.858191238376994</v>
+        <v>1.884075182822144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.47606920826339</v>
@@ -25042,7 +25006,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.867187757100864</v>
+        <v>1.892875144589764</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.212248522438609</v>
@@ -25131,7 +25095,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.859846419553131</v>
+        <v>1.884180986254465</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.945723057889187</v>
@@ -25220,7 +25184,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.844924128159969</v>
+        <v>1.870980994676437</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.51031783184748</v>
@@ -25309,7 +25273,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.836742722867738</v>
+        <v>1.862210778212442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.294878206550671</v>
@@ -25398,7 +25362,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.836642955974418</v>
+        <v>1.862883967143347</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.45657741603005</v>
@@ -25487,7 +25451,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.840710687523826</v>
+        <v>1.863914284730384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.630647476860459</v>
@@ -25576,7 +25540,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.833106933129691</v>
+        <v>1.85763696684178</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.503765118276942</v>
@@ -25665,7 +25629,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.822051215281404</v>
+        <v>1.843652754481609</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.691986821707722</v>
@@ -25754,7 +25718,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.817037305311794</v>
+        <v>1.839287485903357</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.087778846993939</v>
@@ -25843,7 +25807,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.817834185122855</v>
+        <v>1.838166337699948</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.189907490734064</v>
@@ -25932,7 +25896,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.819370916616541</v>
+        <v>1.841823026997937</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.419073606494074</v>
@@ -26021,7 +25985,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.819469797258193</v>
+        <v>1.841020265321859</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.711961925041082</v>
@@ -26110,7 +26074,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.819592618533831</v>
+        <v>1.840022171517215</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.181738743956619</v>
@@ -26199,7 +26163,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.80139423166987</v>
+        <v>1.822704947136468</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.654663351127496</v>
@@ -26288,7 +26252,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.812626711127257</v>
+        <v>1.830236582005151</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.043679347374359</v>
@@ -26377,7 +26341,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.80538276989832</v>
+        <v>1.822233899643698</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.57530609463547</v>
@@ -26466,7 +26430,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.820169490605427</v>
+        <v>1.837231939218162</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.836737316280905</v>
@@ -26555,7 +26519,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.830419653636899</v>
+        <v>1.848960788526637</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.09839520776217</v>
@@ -26644,7 +26608,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.840099828226881</v>
+        <v>1.860469347131035</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.133059817368636</v>
@@ -26733,7 +26697,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.844150448815382</v>
+        <v>1.863513275878572</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.175125607633013</v>
@@ -26822,7 +26786,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.846110515525151</v>
+        <v>1.866252088651773</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.243068359834318</v>
@@ -26911,7 +26875,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.853459667201947</v>
+        <v>1.872168522384276</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.993434440741858</v>
@@ -27000,7 +26964,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.849023148355032</v>
+        <v>1.868301132688438</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.242369592704562</v>
@@ -27089,7 +27053,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.854662154575759</v>
+        <v>1.873697227851144</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.218636219656762</v>
@@ -27178,7 +27142,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.85754939999949</v>
+        <v>1.878606819217242</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.88817836329277</v>
@@ -27267,7 +27231,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.860687732444786</v>
+        <v>1.880760719174446</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.204528588282899</v>
@@ -27356,7 +27320,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.868711982116331</v>
+        <v>1.890949884621847</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.818657590888214</v>
@@ -27445,7 +27409,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.876014628984941</v>
+        <v>1.899114649293378</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.809949625464865</v>
@@ -27534,7 +27498,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.879384459389304</v>
+        <v>1.90166013386198</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.320192647626228</v>
@@ -27820,7 +27784,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.218653555123423</v>
+        <v>1.194768023004405</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.302268772622814</v>
@@ -27909,7 +27873,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.229222852608609</v>
+        <v>1.204990429642784</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.148849702813507</v>
@@ -27998,7 +27962,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.249878295251305</v>
+        <v>1.223869118664779</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.08801468367572</v>
@@ -28087,7 +28051,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.263663167335373</v>
+        <v>1.235657269382486</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.163801775644158</v>
@@ -28176,7 +28140,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.289447729906475</v>
+        <v>1.268669909128326</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.276535683616044</v>
@@ -28265,7 +28229,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.303693981908468</v>
+        <v>1.281549038847671</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.988785693253508</v>
@@ -28354,7 +28318,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.349171215691247</v>
+        <v>1.325781238925539</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.932042781156417</v>
@@ -28443,7 +28407,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.357434397391109</v>
+        <v>1.340618075042666</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.18416588587433</v>
@@ -28532,7 +28496,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.361778314073253</v>
+        <v>1.347296172645108</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.24357527865756</v>
@@ -28621,7 +28585,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.358342843656897</v>
+        <v>1.33774773261087</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.175115480328189</v>
@@ -28710,7 +28674,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368165425887307</v>
+        <v>1.355659145136361</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.204409324712826</v>
@@ -28799,7 +28763,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.3437818836508</v>
+        <v>1.332547492961641</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.337597162561892</v>
@@ -28888,7 +28852,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.337968114109175</v>
+        <v>1.32935015886347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.290914999238951</v>
@@ -28977,7 +28941,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.32643209672178</v>
+        <v>1.31581666221071</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.154052942187598</v>
@@ -29066,7 +29030,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.342305552939276</v>
+        <v>1.326092826335008</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.263374643289577</v>
@@ -29155,7 +29119,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.332726473182972</v>
+        <v>1.322703665907768</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.312018448382962</v>
@@ -29244,7 +29208,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.334641933926328</v>
+        <v>1.326062818833246</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.221893030828025</v>
@@ -29333,7 +29297,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.338094012132395</v>
+        <v>1.331096187245917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.247949267636684</v>
@@ -29422,7 +29386,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.32970785936771</v>
+        <v>1.32420184722641</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.078318356316468</v>
@@ -29511,7 +29475,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.31724608376719</v>
+        <v>1.30821842439266</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.256486603859512</v>
@@ -29600,7 +29564,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.32652514455315</v>
+        <v>1.321584459609837</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.080290137296383</v>
@@ -29689,7 +29653,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.309723466675663</v>
+        <v>1.30270892310458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.218679939760678</v>
@@ -29778,7 +29742,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.306788430037388</v>
+        <v>1.297566275404052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.233040550707444</v>
@@ -29867,7 +29831,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.294530309719474</v>
+        <v>1.285928317797535</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.192483038413031</v>
@@ -29956,7 +29920,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289324587313232</v>
+        <v>1.284906804476594</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.390008910432655</v>
@@ -30045,7 +30009,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.286565405089018</v>
+        <v>1.278175453036596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.161065951347729</v>
@@ -30134,7 +30098,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.283070020916534</v>
+        <v>1.276859484775574</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.137180473123993</v>
@@ -30223,7 +30187,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.279445044326586</v>
+        <v>1.273114478948697</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.199306129898455</v>
@@ -30312,7 +30276,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.28467214686282</v>
+        <v>1.280374424648679</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.193731120676699</v>
@@ -30401,7 +30365,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.284030487354198</v>
+        <v>1.280266167567512</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.074330900796803</v>
@@ -30490,7 +30454,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.28164196598223</v>
+        <v>1.27771415164217</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.124308040521852</v>
@@ -30579,7 +30543,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.290583081820578</v>
+        <v>1.286435383426789</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.29739447462226</v>
@@ -30668,7 +30632,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.292723171698753</v>
+        <v>1.28230091568586</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.216867151513052</v>
@@ -30757,7 +30721,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.288751513043333</v>
+        <v>1.283896597819667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.254466218713194</v>
@@ -30846,7 +30810,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.293229443316144</v>
+        <v>1.287598153758498</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.136516374878262</v>
@@ -30935,7 +30899,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.297400734392852</v>
+        <v>1.287354021844463</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.314582706630978</v>
@@ -31024,7 +30988,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.316978479939298</v>
+        <v>1.308540519069284</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.287785999602113</v>
@@ -31113,7 +31077,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.333579911735633</v>
+        <v>1.325228061645377</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.309302030928055</v>
@@ -31202,7 +31166,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.354362066121549</v>
+        <v>1.347255030218893</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.136031615864525</v>
@@ -31291,7 +31255,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.382641310113419</v>
+        <v>1.373842839722726</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.266614016587129</v>
@@ -31380,7 +31344,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.41014304318039</v>
+        <v>1.402718053312147</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.253046576258947</v>
@@ -31469,7 +31433,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.452041173428712</v>
+        <v>1.435726267935811</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.143131212501942</v>
@@ -31558,7 +31522,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.457480782707647</v>
+        <v>1.448336697944856</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.399900481121667</v>
@@ -31647,7 +31611,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.473559238578184</v>
+        <v>1.464073353468422</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.153926190883863</v>
@@ -31736,7 +31700,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496751659549369</v>
+        <v>1.486511933790247</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.317950287027449</v>
@@ -31825,7 +31789,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.524986464001122</v>
+        <v>1.510740046768833</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.253100324119874</v>
@@ -31914,7 +31878,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529534751061625</v>
+        <v>1.516217788236157</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.31724256361702</v>
@@ -32003,7 +31967,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.597762921794291</v>
+        <v>1.575369702252116</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.584867318288874</v>
@@ -32092,7 +32056,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.606752414297381</v>
+        <v>1.585792587731314</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.217389304343295</v>
